--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,22 +22,31 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>161722</t>
+  </si>
+  <si>
     <t>005437</t>
   </si>
   <si>
     <t>005438</t>
   </si>
   <si>
-    <t>161722</t>
+    <t>招商丰泰灵活配置混合(LOF)</t>
   </si>
   <si>
     <t>易方达易百智能量化策略灵活配置混合A</t>
@@ -46,19 +55,34 @@
     <t>易方达易百智能量化策略灵活配置混合C</t>
   </si>
   <si>
-    <t>招商丰泰灵活配置混合(LOF)</t>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>23.44</t>
   </si>
   <si>
     <t>80.81</t>
   </si>
   <si>
-    <t>23.44</t>
+    <t>1.74</t>
   </si>
   <si>
     <t>1.17</t>
   </si>
   <si>
-    <t>1.74</t>
+    <t>0.0922</t>
+  </si>
+  <si>
+    <t>0.0096</t>
+  </si>
+  <si>
+    <t>0.0025</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,65 +462,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>161722</t>
-  </si>
-  <si>
-    <t>005437</t>
-  </si>
-  <si>
-    <t>005438</t>
-  </si>
-  <si>
-    <t>招商丰泰灵活配置混合(LOF)</t>
-  </si>
-  <si>
-    <t>易方达易百智能量化策略灵活配置混合A</t>
-  </si>
-  <si>
-    <t>易方达易百智能量化策略灵活配置混合C</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>23.44</t>
-  </si>
-  <si>
-    <t>80.81</t>
-  </si>
-  <si>
-    <t>1.74</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>0.0922</t>
-  </si>
-  <si>
-    <t>0.0096</t>
-  </si>
-  <si>
-    <t>0.0025</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,323 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1702,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,17 +1714,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1733,14 +1754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1749,14 +1792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1765,14 +1830,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1781,13 +1868,869 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2629,7 +2630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2640,17 +2641,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2660,14 +2681,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2676,14 +2719,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2692,14 +2757,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -2708,14 +2795,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.64</v>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2724,13 +2833,507 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161722</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商丰泰灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005437</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.87</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2587</t>
+          <t>0.2749</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -715,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011649</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合A</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>81.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1773</t>
+          <t>0.1384</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0688</t>
+          <t>0.1131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -791,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002561</t>
+          <t>003845</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴安鑫量化灵活配置混合</t>
+          <t>汇安丰恒灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>58.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -829,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011650</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合C</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0962</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -867,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>519007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
+          <t>海富通强化回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -905,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001264</t>
+          <t>012673</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合A</t>
+          <t>华融融兴6个月定开混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77.39</t>
+          <t>26.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -943,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002327</t>
+          <t>011731</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合C</t>
+          <t>国投瑞银安睿混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.39</t>
+          <t>34.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -981,36 +943,224 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001797</t>
+          <t>011732</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华融新利灵活配置混合</t>
+          <t>国投瑞银安睿混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>62.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +1195,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1075,36 +1225,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>012377</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>长盛安睿一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>29.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1469</t>
+          <t>0.1924</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1113,36 +1263,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.1425</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1151,36 +1301,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>003845</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>汇安丰恒灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.76</t>
+          <t>33.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.1089</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1189,36 +1339,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.76</t>
+          <t>87.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1227,36 +1377,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008342</t>
+          <t>519197</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
+          <t>万家颐达灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>57.74</t>
+          <t>26.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0421</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1265,32 +1415,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008343</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>57.74</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1303,36 +1453,640 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001797</t>
+          <t>012963</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华融新利灵活配置混合</t>
+          <t>招商稳健平衡混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68.59</t>
+          <t>64.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,7 +2479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1755,36 +2509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012377</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛安睿一年持有混合A</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.09</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1924</t>
+          <t>0.1469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1793,36 +2547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1425</t>
+          <t>0.0353</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1831,36 +2585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003845</t>
+          <t>009499</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰恒灵活配置混合A</t>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>28.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1089</t>
+          <t>0.0207</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1869,36 +2623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001528</t>
+          <t>009755</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安先进制造股票</t>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.44</t>
+          <t>28.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1907,36 +2661,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519197</t>
+          <t>008342</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家颐达灵活配置混合</t>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.85</t>
+          <t>57.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0421</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1945,32 +2699,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>008343</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>57.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1983,640 +2737,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012963</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商稳健平衡混合A</t>
+          <t>华融新利灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>64.08</t>
+          <t>68.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004836</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>63.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>67.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012216</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红塔红土盛利混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>51.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012378</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛安睿一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.09</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012964</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商稳健平衡混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>64.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001148</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>申万菱信多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001724</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004837</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>63.92</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>970073</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012217</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>红塔红土盛利混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>51.68</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002952</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信多因子量化股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001978</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>970074</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004840</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东兴品牌精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.22</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003846</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇安丰恒灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>33.33</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006442</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东兴品牌精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.22</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2630,7 +2780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,7 +2801,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2681,32 +2831,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>南方金融主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>84.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2749</t>
+          <t>0.2587</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2719,36 +2869,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320011</t>
+          <t>011649</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安中小盘精选混合</t>
+          <t>易方达逆向投资混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.59</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1384</t>
+          <t>0.1773</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2757,36 +2907,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>009499</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1131</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2795,32 +2945,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003845</t>
+          <t>002561</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安丰恒灵活配置混合A</t>
+          <t>东吴安鑫量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.64</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2833,36 +2983,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001528</t>
+          <t>011650</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安先进制造股票</t>
+          <t>易方达逆向投资混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0962</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2871,36 +3021,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>009755</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2909,36 +3059,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012673</t>
+          <t>001264</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华融融兴6个月定开混合A</t>
+          <t>银华恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.57</t>
+          <t>77.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2947,36 +3097,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011731</t>
+          <t>002327</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银安睿混合A</t>
+          <t>银华恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>77.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2985,224 +3135,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011732</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银安睿混合C</t>
+          <t>华融新利灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>62.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001978</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012674</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华融融兴6个月定开混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003846</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇安丰恒灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>58.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3216,128 +3178,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.77</v>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,6 +600,742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +1921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2094,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2452,7 +3205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2774,7 +3527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3172,7 +3925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002966-苏州银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,2636 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳品质回报6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳红利回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015838</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发招利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005652</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富天颐混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015839</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发招利混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005653</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国富天颐混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012302</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012303</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1921,7 +4568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2847,7 +5494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3205,7 +5852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3527,7 +6174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3925,7 +6572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
